--- a/monitoring_agent/monitor/Дороги/787_расчеты.xlsx
+++ b/monitoring_agent/monitor/Дороги/787_расчеты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file_monitoring_system\monitoring_agent\monitor\Дороги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBBA013-CBE8-4DCC-A8C7-8929784A0F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD609FF1-4BAC-46F7-B628-F7C55030D885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>uvicorn app.main:app --reload --host 127.0.0.1 --port 8000</t>
   </si>
@@ -85,13 +85,81 @@
   </si>
   <si>
     <t>uvicorn app.main:app --reload --host 127.0.0.1 --port 8019</t>
+  </si>
+  <si>
+    <r>
+      <t>is_commented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE3EAF2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF9FAFB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF4ADF4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF9FAFB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE9AE7E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF9FAFB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE6D37A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +178,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF9FAFB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFE3EAF2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF4ADF4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFE9AE7E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFE6D37A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,10 +230,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,110 +518,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="K7:K26"/>
+  <dimension ref="E6:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K26"/>
+      <selection activeCell="E6" sqref="E6:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K26" s="1" t="s">
         <v>19</v>
       </c>
